--- a/1 Basic.HTTP Protocol Theory/HTTP Protocol Teory.xlsx
+++ b/1 Basic.HTTP Protocol Theory/HTTP Protocol Teory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii_Chernov1\Documents\FED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\fedmp\1 Basic.HTTP Protocol Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,10 +103,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +400,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="F1" t="s">
         <v>10</v>
       </c>
@@ -469,10 +469,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.191</v>
       </c>
       <c r="F8" t="s">
